--- a/data/trans_orig/RUIDO_2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/RUIDO_2-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>40852</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>23883</v>
+        <v>24002</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>62788</v>
+        <v>60763</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3043309712418778</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1779161912672666</v>
+        <v>0.1788052423804244</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4677471529832063</v>
+        <v>0.4526597234598134</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -762,19 +762,19 @@
         <v>15711</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6962</v>
+        <v>7180</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29615</v>
+        <v>31484</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1222962577380286</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05419411912573894</v>
+        <v>0.05588776187861326</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2305173315620501</v>
+        <v>0.245067893879961</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -783,19 +783,19 @@
         <v>56563</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>35660</v>
+        <v>36777</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>81688</v>
+        <v>82905</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2153108068040656</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1357403827577083</v>
+        <v>0.1399930282364132</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.310949808920301</v>
+        <v>0.3155826232163472</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>38884</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>23327</v>
+        <v>24567</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>57249</v>
+        <v>57422</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2896680110849963</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1737740422218545</v>
+        <v>0.1830163260232135</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4264818536579428</v>
+        <v>0.4277710656298228</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>33</v>
@@ -833,19 +833,19 @@
         <v>59611</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>44284</v>
+        <v>44626</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>75271</v>
+        <v>75671</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.4640041230453876</v>
+        <v>0.4640041230453877</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.344703152730382</v>
+        <v>0.347364889365068</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5859039076307363</v>
+        <v>0.5890162843159683</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>49</v>
@@ -854,19 +854,19 @@
         <v>98494</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>75330</v>
+        <v>77656</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>123075</v>
+        <v>124090</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.3749233398925685</v>
+        <v>0.3749233398925686</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2867468324207832</v>
+        <v>0.2956008086333474</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4684926406509001</v>
+        <v>0.4723556508714302</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>25233</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15139</v>
+        <v>14812</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>41017</v>
+        <v>39185</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.187978046679344</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1127815868197247</v>
+        <v>0.1103423543842056</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.305563810914925</v>
+        <v>0.2919156220445326</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>15</v>
@@ -904,19 +904,19 @@
         <v>23447</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>14195</v>
+        <v>13591</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>38754</v>
+        <v>36811</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.182509742542862</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1104937901559127</v>
+        <v>0.1057908603327147</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3016570206224897</v>
+        <v>0.2865324217742923</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>30</v>
@@ -925,19 +925,19 @@
         <v>48680</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>33477</v>
+        <v>34855</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>67613</v>
+        <v>68324</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.1853038900635219</v>
+        <v>0.185303890063522</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1274332278028903</v>
+        <v>0.1326773471081505</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2573730449388346</v>
+        <v>0.2600795707236317</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>17157</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7380</v>
+        <v>7951</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31962</v>
+        <v>32266</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1278132422201613</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05498064870155926</v>
+        <v>0.05923546185202195</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2381017212905562</v>
+        <v>0.2403719008298768</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -975,19 +975,19 @@
         <v>11400</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4752</v>
+        <v>4694</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21260</v>
+        <v>22452</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08873393605426744</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03698636735290028</v>
+        <v>0.0365413955058695</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.165483278122672</v>
+        <v>0.1747616383630098</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>15</v>
@@ -996,19 +996,19 @@
         <v>28557</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15862</v>
+        <v>17246</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>44833</v>
+        <v>44920</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1087023474131117</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0603812716623648</v>
+        <v>0.0656465136986996</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1706588193875324</v>
+        <v>0.1709913547984319</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>12109</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4741</v>
+        <v>4432</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>25498</v>
+        <v>24519</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.09020972877362043</v>
+        <v>0.09020972877362042</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03531597871542222</v>
+        <v>0.03301736263007615</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1899497514267193</v>
+        <v>0.182657894363508</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>11</v>
@@ -1046,19 +1046,19 @@
         <v>18301</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>9051</v>
+        <v>10059</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>30668</v>
+        <v>32567</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1424559406194542</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07045224982030482</v>
+        <v>0.07830136721431775</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.238714173290131</v>
+        <v>0.2534985864538405</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>17</v>
@@ -1067,19 +1067,19 @@
         <v>30411</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>18165</v>
+        <v>17629</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>47753</v>
+        <v>47872</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.1157596158267321</v>
+        <v>0.1157596158267322</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.06914672225447142</v>
+        <v>0.0671048493151721</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1817726196073082</v>
+        <v>0.1822284235720848</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>13110</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5560</v>
+        <v>5684</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25308</v>
+        <v>25480</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.08747079482630964</v>
+        <v>0.08747079482630965</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03709347229960643</v>
+        <v>0.03792664102740708</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1688532981614254</v>
+        <v>0.1700001654801047</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -1192,19 +1192,19 @@
         <v>17790</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10316</v>
+        <v>10309</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>28761</v>
+        <v>29505</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1027194608101631</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05956223332848733</v>
+        <v>0.0595264204451944</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1660670828220789</v>
+        <v>0.1703602571929241</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>21</v>
@@ -1213,19 +1213,19 @@
         <v>30900</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>19689</v>
+        <v>20074</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>45392</v>
+        <v>46454</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09564524292863984</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06094275764124096</v>
+        <v>0.06213593100673167</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1405001815073365</v>
+        <v>0.1437876139089785</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>29849</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>19903</v>
+        <v>19991</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>44508</v>
+        <v>43675</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1991522275685362</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1327902425898218</v>
+        <v>0.1333816246307191</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2969607472509098</v>
+        <v>0.2914012893933005</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>36</v>
@@ -1263,19 +1263,19 @@
         <v>38083</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>27472</v>
+        <v>28146</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>50364</v>
+        <v>49774</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2198896020115285</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1586250843319644</v>
+        <v>0.1625126987249274</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2907981343442104</v>
+        <v>0.2873957636950915</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>56</v>
@@ -1284,19 +1284,19 @@
         <v>67932</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>52481</v>
+        <v>52776</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>86733</v>
+        <v>85419</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2102690420716754</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1624452191183619</v>
+        <v>0.1633587502696047</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2684641426951981</v>
+        <v>0.2643968967978724</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>57431</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>43600</v>
+        <v>43133</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>73202</v>
+        <v>74067</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3831812847868093</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2909004846967523</v>
+        <v>0.2877860965216766</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4884031837722628</v>
+        <v>0.494175150924815</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>59</v>
@@ -1334,19 +1334,19 @@
         <v>60865</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>48837</v>
+        <v>48349</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>73961</v>
+        <v>74678</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3514316487725275</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2819847860450184</v>
+        <v>0.2791685257294842</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4270465952003737</v>
+        <v>0.4311868247302787</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>94</v>
@@ -1355,19 +1355,19 @@
         <v>118296</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>99254</v>
+        <v>100012</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>140006</v>
+        <v>139713</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3661610580901634</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3072207442744708</v>
+        <v>0.3095659830555642</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4333609463157262</v>
+        <v>0.4324523914109206</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>28725</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17694</v>
+        <v>17063</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>42232</v>
+        <v>41470</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1916547295223698</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1180523377775644</v>
+        <v>0.1138446725513974</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2817717311363359</v>
+        <v>0.2766864013413859</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -1405,19 +1405,19 @@
         <v>27228</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18054</v>
+        <v>18645</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>38224</v>
+        <v>38827</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1572121395061983</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1042435223779354</v>
+        <v>0.1076542752682746</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2207061575955324</v>
+        <v>0.2241850107924308</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>43</v>
@@ -1426,19 +1426,19 @@
         <v>55953</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>41309</v>
+        <v>40349</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>73054</v>
+        <v>72433</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1731908740680529</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1278628044675549</v>
+        <v>0.1248920188188042</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2261244215815637</v>
+        <v>0.2242025470781163</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>20765</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>11012</v>
+        <v>10465</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>35139</v>
+        <v>35171</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1385409632959752</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07346920282808227</v>
+        <v>0.06982342859121642</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2344443414340809</v>
+        <v>0.2346630461622589</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>26</v>
@@ -1476,19 +1476,19 @@
         <v>29225</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>20245</v>
+        <v>19888</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>40931</v>
+        <v>40544</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.1687471488995826</v>
+        <v>0.1687471488995825</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1168940724004484</v>
+        <v>0.1148331676991416</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2363336222486794</v>
+        <v>0.2340989217507471</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>38</v>
@@ -1497,19 +1497,19 @@
         <v>49990</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>35264</v>
+        <v>35614</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>67607</v>
+        <v>67851</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1547337828414685</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1091525362327624</v>
+        <v>0.1102351928909966</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.209263670001605</v>
+        <v>0.2100196570908627</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>12042</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6111</v>
+        <v>6038</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21100</v>
+        <v>21430</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04845185410042533</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02458983063528733</v>
+        <v>0.02429537300718584</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08490117405946092</v>
+        <v>0.08622874884912039</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>22</v>
@@ -1622,19 +1622,19 @@
         <v>18174</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12066</v>
+        <v>11383</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>27037</v>
+        <v>26734</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08395884308002727</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05573989886610613</v>
+        <v>0.05258591160507611</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.124903167443518</v>
+        <v>0.1235035931823848</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>32</v>
@@ -1643,19 +1643,19 @@
         <v>30216</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>21316</v>
+        <v>21590</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>41512</v>
+        <v>42452</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06498117417574842</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04584170468103956</v>
+        <v>0.04643116327157376</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08927316230035467</v>
+        <v>0.09129515793483882</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>59273</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>45308</v>
+        <v>45618</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>73699</v>
+        <v>74601</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.238496560053747</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1823050338543954</v>
+        <v>0.183553595260697</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2965388550412803</v>
+        <v>0.3001706201930804</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>78</v>
@@ -1693,19 +1693,19 @@
         <v>55253</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>44842</v>
+        <v>44604</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>67259</v>
+        <v>65905</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2552519939481517</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2071536719276767</v>
+        <v>0.206056688073058</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3107154047829434</v>
+        <v>0.3044591436351443</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>130</v>
@@ -1714,19 +1714,19 @@
         <v>114527</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>96798</v>
+        <v>97769</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>132847</v>
+        <v>133549</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2462965999276051</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2081697765640805</v>
+        <v>0.2102574175373977</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2856957432162393</v>
+        <v>0.2872055263054897</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>112198</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>96157</v>
+        <v>96377</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>128226</v>
+        <v>129495</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4514465797073151</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3869054440718768</v>
+        <v>0.387789213334353</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.515938953853285</v>
+        <v>0.5210478162190819</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>128</v>
@@ -1764,19 +1764,19 @@
         <v>88648</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>76012</v>
+        <v>77230</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>100528</v>
+        <v>101400</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4095221914087562</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3511516716839138</v>
+        <v>0.3567749139929031</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4644034285365373</v>
+        <v>0.4684359681953171</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>225</v>
@@ -1785,19 +1785,19 @@
         <v>200845</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>180114</v>
+        <v>179286</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>220370</v>
+        <v>220531</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4319298126407775</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3873461547349417</v>
+        <v>0.3855646838674339</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4739182818950556</v>
+        <v>0.4742656228958058</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>35203</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>25567</v>
+        <v>24549</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>48690</v>
+        <v>47021</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1416467728167311</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1028726707142057</v>
+        <v>0.09877753848381693</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1959112447324331</v>
+        <v>0.1891981314643241</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>37</v>
@@ -1835,19 +1835,19 @@
         <v>29465</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>22009</v>
+        <v>21831</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>40046</v>
+        <v>38759</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1361176893235116</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1016743648346653</v>
+        <v>0.1008509087444938</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1849975647668843</v>
+        <v>0.1790536719421779</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>69</v>
@@ -1856,19 +1856,19 @@
         <v>64668</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>52542</v>
+        <v>51809</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>79827</v>
+        <v>81255</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1390728572747764</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.112993988376054</v>
+        <v>0.1114189139713993</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1716717469615293</v>
+        <v>0.1747448591283849</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>29813</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>19870</v>
+        <v>20899</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>41554</v>
+        <v>42886</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1199582333217814</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07994919243766126</v>
+        <v>0.08409127144865533</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.167198753761198</v>
+        <v>0.1725610241664116</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>34</v>
@@ -1906,19 +1906,19 @@
         <v>24926</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>17877</v>
+        <v>17060</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>33692</v>
+        <v>33010</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1151492822395532</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08258674999011209</v>
+        <v>0.07881305901521835</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1556466512077985</v>
+        <v>0.1524939566152029</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>60</v>
@@ -1927,19 +1927,19 @@
         <v>54739</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>41977</v>
+        <v>43291</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>70159</v>
+        <v>69416</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1177195559810926</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09027491619858431</v>
+        <v>0.09310057611182367</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1508816985742708</v>
+        <v>0.1492841427773897</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>21010</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11713</v>
+        <v>12224</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>32915</v>
+        <v>33294</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.08086900019760931</v>
+        <v>0.0808690001976093</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04508471995134634</v>
+        <v>0.04705203773198854</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1266920679981406</v>
+        <v>0.1281514825288918</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>40</v>
@@ -2052,19 +2052,19 @@
         <v>26806</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>20124</v>
+        <v>20276</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>35712</v>
+        <v>35560</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.09729725098987874</v>
+        <v>0.09729725098987875</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07304117376013085</v>
+        <v>0.07359591141133866</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1296227592813622</v>
+        <v>0.1290702950494971</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>56</v>
@@ -2073,19 +2073,19 @@
         <v>47817</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>34982</v>
+        <v>35887</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>60314</v>
+        <v>61031</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.08932411352958454</v>
+        <v>0.08932411352958453</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06534765819934082</v>
+        <v>0.06703930721021634</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1126701624384322</v>
+        <v>0.1140096736804691</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>63041</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>50665</v>
+        <v>48462</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>79890</v>
+        <v>78898</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.2426476379095129</v>
+        <v>0.2426476379095128</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1950120030377952</v>
+        <v>0.1865305377246544</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3074999700238457</v>
+        <v>0.3036815982925467</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>84</v>
@@ -2123,19 +2123,19 @@
         <v>53279</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>43350</v>
+        <v>43279</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>63812</v>
+        <v>63111</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1933834903141717</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1573433870810695</v>
+        <v>0.1570885938160289</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2316136723053336</v>
+        <v>0.2290695429059497</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>141</v>
@@ -2144,19 +2144,19 @@
         <v>116320</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>100881</v>
+        <v>99597</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>135669</v>
+        <v>134947</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2172929025582745</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1884519471338136</v>
+        <v>0.1860537632945307</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.253437263230809</v>
+        <v>0.2520897810438851</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>115250</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>98124</v>
+        <v>99554</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>131338</v>
+        <v>133839</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.4436015137110914</v>
+        <v>0.4436015137110912</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3776837757474406</v>
+        <v>0.3831857559377396</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5055271418833581</v>
+        <v>0.5151501983382157</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>166</v>
@@ -2194,19 +2194,19 @@
         <v>102056</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>90284</v>
+        <v>89245</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>115264</v>
+        <v>114334</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3704250202306227</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.327697438084476</v>
+        <v>0.3239257475292878</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4183649118655794</v>
+        <v>0.4149901603318106</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>283</v>
@@ -2215,19 +2215,19 @@
         <v>217306</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>196015</v>
+        <v>198090</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>237207</v>
+        <v>237904</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4059398324135881</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3661668762404718</v>
+        <v>0.3700428935223165</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4431175591960813</v>
+        <v>0.4444194988994399</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>37796</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>27153</v>
+        <v>27635</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>50266</v>
+        <v>51221</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1454776250085005</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.104512124784877</v>
+        <v>0.1063697846447049</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1934739546055039</v>
+        <v>0.1971499017300002</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>74</v>
@@ -2265,19 +2265,19 @@
         <v>50295</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>39963</v>
+        <v>40554</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>59926</v>
+        <v>60289</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.1825508890630091</v>
+        <v>0.182550889063009</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1450493050768353</v>
+        <v>0.1471948156606962</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2175080212842143</v>
+        <v>0.2188259834067428</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>110</v>
@@ -2286,19 +2286,19 @@
         <v>88090</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>73091</v>
+        <v>72956</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>104047</v>
+        <v>102803</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.164558089090204</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1365384735821771</v>
+        <v>0.1362867139627963</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1943650608763148</v>
+        <v>0.1920428223260882</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>22708</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>14580</v>
+        <v>14530</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>32973</v>
+        <v>33390</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.08740422317328601</v>
+        <v>0.087404223173286</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05611710219942436</v>
+        <v>0.05592816820077247</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1269131538837464</v>
+        <v>0.1285196107975939</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>65</v>
@@ -2336,19 +2336,19 @@
         <v>43074</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>33198</v>
+        <v>34317</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>53019</v>
+        <v>54140</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1563433494023178</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1204967795977351</v>
+        <v>0.124556981768965</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1924386208553132</v>
+        <v>0.1965077233587642</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>87</v>
@@ -2357,19 +2357,19 @@
         <v>65782</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>53696</v>
+        <v>54577</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>80558</v>
+        <v>80214</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1228850624083491</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1003069842918311</v>
+        <v>0.1019525768826087</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1504875834166168</v>
+        <v>0.1498437184163698</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>15614</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>9171</v>
+        <v>8585</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>25488</v>
+        <v>24774</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.05901033330300076</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03465924618786752</v>
+        <v>0.03244613087644779</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.09632764069571059</v>
+        <v>0.09362991715955558</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>31</v>
@@ -2482,19 +2482,19 @@
         <v>19585</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>13669</v>
+        <v>13778</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>27317</v>
+        <v>27143</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.07854092459306647</v>
+        <v>0.07854092459306646</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05481439161005458</v>
+        <v>0.05525257191169253</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1095480150885589</v>
+        <v>0.1088499102337147</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>45</v>
@@ -2503,19 +2503,19 @@
         <v>35199</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>25356</v>
+        <v>26524</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>47486</v>
+        <v>46141</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.06848629793968081</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04933587672556931</v>
+        <v>0.05160835174337548</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.09239400247059808</v>
+        <v>0.08977609081275791</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>70743</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>57491</v>
+        <v>57699</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>85500</v>
+        <v>84620</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.267364578584567</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2172832037897336</v>
+        <v>0.2180689415668154</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3231381088377906</v>
+        <v>0.3198136444636876</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>121</v>
@@ -2553,19 +2553,19 @@
         <v>73552</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>62297</v>
+        <v>62542</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>84485</v>
+        <v>85142</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2949584846810543</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.249822842866687</v>
+        <v>0.2508072272674165</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3388010858021659</v>
+        <v>0.3414368405170067</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>196</v>
@@ -2574,19 +2574,19 @@
         <v>144295</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>127107</v>
+        <v>127191</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>162196</v>
+        <v>162800</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.2807527486852432</v>
+        <v>0.2807527486852431</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2473117681538276</v>
+        <v>0.2474751467231082</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3155832330855414</v>
+        <v>0.3167576634705324</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>100615</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>86261</v>
+        <v>84388</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>117538</v>
+        <v>114622</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.3802645706943085</v>
+        <v>0.3802645706943086</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3260160692954324</v>
+        <v>0.3189366507004837</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.444223418833373</v>
+        <v>0.433201137599549</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>148</v>
@@ -2624,19 +2624,19 @@
         <v>87726</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>76069</v>
+        <v>76239</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>99197</v>
+        <v>100058</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3517983687520862</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3050504832100824</v>
+        <v>0.305735676524266</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.397800631858415</v>
+        <v>0.4012544175409544</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>260</v>
@@ -2645,19 +2645,19 @@
         <v>188341</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>169036</v>
+        <v>168577</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>206401</v>
+        <v>207529</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.3664531750771007</v>
+        <v>0.3664531750771006</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3288927139831487</v>
+        <v>0.3279980856270339</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4015930655600765</v>
+        <v>0.403787019144549</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>39250</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>29361</v>
+        <v>28310</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>50719</v>
+        <v>51343</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1483404116447457</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1109685564581239</v>
+        <v>0.1069944468641364</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1916856981884952</v>
+        <v>0.1940462556171807</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>43</v>
@@ -2695,19 +2695,19 @@
         <v>27987</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>21230</v>
+        <v>20686</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>36630</v>
+        <v>36493</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1122320096933525</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.08513529361734393</v>
+        <v>0.08295576734129358</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1468924110995244</v>
+        <v>0.1463439943720399</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>86</v>
@@ -2716,19 +2716,19 @@
         <v>67236</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>55149</v>
+        <v>54978</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>82835</v>
+        <v>80990</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.130821129463439</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1073020947803111</v>
+        <v>0.1069701237198796</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1611717638400229</v>
+        <v>0.1575814800533463</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>38371</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>28424</v>
+        <v>28659</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>49471</v>
+        <v>50763</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.145020105773378</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1074256834114595</v>
+        <v>0.1083153894299148</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1869697389362215</v>
+        <v>0.1918540534057589</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>66</v>
@@ -2766,19 +2766,19 @@
         <v>40514</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>32503</v>
+        <v>32637</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>50350</v>
+        <v>49995</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1624702122804404</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.130344604775687</v>
+        <v>0.1308821978909429</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2019142555538666</v>
+        <v>0.2004919905063931</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>112</v>
@@ -2787,19 +2787,19 @@
         <v>78885</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>66040</v>
+        <v>66782</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>93865</v>
+        <v>93176</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.1534866488345363</v>
+        <v>0.1534866488345362</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1284932840856143</v>
+        <v>0.1299373795091004</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1826329655799086</v>
+        <v>0.1812916246785392</v>
       </c>
     </row>
     <row r="33">
@@ -2891,19 +2891,19 @@
         <v>10441</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>5923</v>
+        <v>6006</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>17198</v>
+        <v>17561</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.06139709162666913</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.03483326115889027</v>
+        <v>0.03531985691094282</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1011336588471148</v>
+        <v>0.1032680614324592</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>39</v>
@@ -2912,19 +2912,19 @@
         <v>20560</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>14671</v>
+        <v>14801</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>26898</v>
+        <v>27385</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1139093609004266</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0812799019746463</v>
+        <v>0.08200341961920574</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1490242096466572</v>
+        <v>0.1517189207556416</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>53</v>
@@ -2933,19 +2933,19 @@
         <v>31001</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>22894</v>
+        <v>23767</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>39115</v>
+        <v>39584</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.08843553362500696</v>
+        <v>0.08843553362500697</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.06530962713737665</v>
+        <v>0.0677979469944828</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1115818407445128</v>
+        <v>0.1129211767991802</v>
       </c>
     </row>
     <row r="35">
@@ -2962,19 +2962,19 @@
         <v>34707</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>26593</v>
+        <v>26319</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>43951</v>
+        <v>42683</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2040977497457079</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1563824910216545</v>
+        <v>0.1547703581455408</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2584539973601504</v>
+        <v>0.25100032239883</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>112</v>
@@ -2983,19 +2983,19 @@
         <v>59092</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>50387</v>
+        <v>50503</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>68077</v>
+        <v>68875</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3273852895438545</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2791596139524953</v>
+        <v>0.2797980907259986</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3771630285167296</v>
+        <v>0.3815840611983561</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>161</v>
@@ -3004,19 +3004,19 @@
         <v>93799</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>81412</v>
+        <v>81694</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>106766</v>
+        <v>106994</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2675782094564034</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2322400482056707</v>
+        <v>0.2330467284844855</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3045688241237898</v>
+        <v>0.305217566032139</v>
       </c>
     </row>
     <row r="36">
@@ -3033,19 +3033,19 @@
         <v>67354</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>56543</v>
+        <v>57606</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>78103</v>
+        <v>79562</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3960816472090551</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3325030072438402</v>
+        <v>0.3387557695720702</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4592888706802244</v>
+        <v>0.4678709009782169</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>100</v>
@@ -3054,19 +3054,19 @@
         <v>52773</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>43931</v>
+        <v>43594</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>61317</v>
+        <v>62038</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2923761269761326</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2433871815735111</v>
+        <v>0.2415218141330316</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3397143866751602</v>
+        <v>0.3437065039199907</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>192</v>
@@ -3075,19 +3075,19 @@
         <v>120128</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>107144</v>
+        <v>107665</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>135253</v>
+        <v>134710</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.3426839225914556</v>
+        <v>0.3426839225914557</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3056461492618899</v>
+        <v>0.3071312406011563</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3858306739018935</v>
+        <v>0.3842838740673359</v>
       </c>
     </row>
     <row r="37">
@@ -3104,19 +3104,19 @@
         <v>28374</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>21373</v>
+        <v>21355</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>37234</v>
+        <v>37640</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1668549816710249</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1256843398808049</v>
+        <v>0.1255814301044552</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2189576574993085</v>
+        <v>0.2213443332486428</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>38</v>
@@ -3125,19 +3125,19 @@
         <v>22045</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>15915</v>
+        <v>16360</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>29261</v>
+        <v>29396</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1221345916370969</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.08817382180548913</v>
+        <v>0.09064024544936712</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1621118422852404</v>
+        <v>0.1628637905233931</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>79</v>
@@ -3146,19 +3146,19 @@
         <v>50419</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>40561</v>
+        <v>39764</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>61005</v>
+        <v>61727</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1438285596786377</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.115707787201599</v>
+        <v>0.113433566558128</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1740273498524555</v>
+        <v>0.1760869517972941</v>
       </c>
     </row>
     <row r="38">
@@ -3175,19 +3175,19 @@
         <v>29176</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>21734</v>
+        <v>22328</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>38344</v>
+        <v>37205</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1715685297475431</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1278052187629561</v>
+        <v>0.1313006470917333</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2254861965511705</v>
+        <v>0.2187855464833535</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>49</v>
@@ -3196,19 +3196,19 @@
         <v>26027</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>19948</v>
+        <v>20139</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>33817</v>
+        <v>33460</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1441946309424895</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1105162813096012</v>
+        <v>0.1115725065499202</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1873551777850833</v>
+        <v>0.1853743336962977</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>92</v>
@@ -3217,19 +3217,19 @@
         <v>55202</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>45600</v>
+        <v>45080</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>66356</v>
+        <v>66698</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.1574737746484962</v>
+        <v>0.1574737746484963</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1300827543055189</v>
+        <v>0.1285980249384231</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1892925081425318</v>
+        <v>0.1902681730409299</v>
       </c>
     </row>
     <row r="39">
@@ -3321,19 +3321,19 @@
         <v>15147</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>9338</v>
+        <v>9626</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>23082</v>
+        <v>22139</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1165127554295634</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.07182816739918639</v>
+        <v>0.07404032727030189</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1775452336501621</v>
+        <v>0.1702954640485943</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>33</v>
@@ -3342,19 +3342,19 @@
         <v>17892</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>12393</v>
+        <v>11750</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>24636</v>
+        <v>25208</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.08159100038235831</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.05651560332015559</v>
+        <v>0.05358380083463006</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1123433342903717</v>
+        <v>0.1149523649739552</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>53</v>
@@ -3363,19 +3363,19 @@
         <v>33040</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>25238</v>
+        <v>24674</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>43763</v>
+        <v>42655</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.09458859271391105</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.07225348387246019</v>
+        <v>0.07063761591924743</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1252893093296358</v>
+        <v>0.1221169570761571</v>
       </c>
     </row>
     <row r="41">
@@ -3392,19 +3392,19 @@
         <v>36652</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>29153</v>
+        <v>29263</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>45601</v>
+        <v>46859</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2819234156806794</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.224243274398094</v>
+        <v>0.2250929341995934</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3507591662233761</v>
+        <v>0.3604351850883772</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>210</v>
@@ -3413,19 +3413,19 @@
         <v>104972</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>94143</v>
+        <v>93574</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>116212</v>
+        <v>115731</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.4786858345474096</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.4293058843595463</v>
+        <v>0.4267085683702625</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.5299410208124078</v>
+        <v>0.5277469087087414</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>269</v>
@@ -3434,19 +3434,19 @@
         <v>141624</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>127720</v>
+        <v>127097</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>154912</v>
+        <v>155757</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.4054524674631095</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.3656469706131228</v>
+        <v>0.3638651220860326</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.4434951327003171</v>
+        <v>0.4459155315314906</v>
       </c>
     </row>
     <row r="42">
@@ -3463,19 +3463,19 @@
         <v>39841</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>32218</v>
+        <v>30121</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>50323</v>
+        <v>49298</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3064570040300593</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2478194471836447</v>
+        <v>0.2316902473960681</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3870853528219278</v>
+        <v>0.3792006821815307</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>91</v>
@@ -3484,19 +3484,19 @@
         <v>49447</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>40018</v>
+        <v>40430</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>59856</v>
+        <v>59328</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.2254828426244917</v>
+        <v>0.2254828426244916</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1824872257868376</v>
+        <v>0.1843650684134715</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2729528398034163</v>
+        <v>0.2705451536259879</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>149</v>
@@ -3505,19 +3505,19 @@
         <v>89288</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>76906</v>
+        <v>77365</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>101982</v>
+        <v>102601</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2556207649000548</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2201725707223172</v>
+        <v>0.2214859418445547</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2919618929559135</v>
+        <v>0.2937352033007924</v>
       </c>
     </row>
     <row r="43">
@@ -3534,19 +3534,19 @@
         <v>16839</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>10680</v>
+        <v>11184</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>23764</v>
+        <v>24378</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1295259570723716</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.08214697819040706</v>
+        <v>0.08602623013731481</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1827945831394325</v>
+        <v>0.1875123181631236</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>39</v>
@@ -3555,19 +3555,19 @@
         <v>22649</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>16472</v>
+        <v>16680</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>30272</v>
+        <v>30076</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1032808576477249</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.0751163860005412</v>
+        <v>0.07606174773566143</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1380448304528684</v>
+        <v>0.1371526738209954</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>62</v>
@@ -3576,19 +3576,19 @@
         <v>39488</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>30845</v>
+        <v>30427</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>49980</v>
+        <v>49461</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1130490695420446</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.08830665166258304</v>
+        <v>0.08710952572967</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1430858457470168</v>
+        <v>0.1416003428017714</v>
       </c>
     </row>
     <row r="44">
@@ -3605,19 +3605,19 @@
         <v>21527</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>15379</v>
+        <v>15550</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>29410</v>
+        <v>30052</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1655808677873263</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1182977948147219</v>
+        <v>0.1196079716147993</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2262173628957343</v>
+        <v>0.2311587808410304</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>48</v>
@@ -3626,19 +3626,19 @@
         <v>24333</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>18579</v>
+        <v>18468</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>31502</v>
+        <v>31991</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.1109594647980156</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.084723035131548</v>
+        <v>0.08421519395147292</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1436527313094894</v>
+        <v>0.1458837856214489</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>81</v>
@@ -3647,19 +3647,19 @@
         <v>45859</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>36250</v>
+        <v>37154</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>56089</v>
+        <v>56166</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1312891053808801</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1037800793506043</v>
+        <v>0.1063676138984401</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1605775309014619</v>
+        <v>0.1607971086387506</v>
       </c>
     </row>
     <row r="45">
@@ -3751,19 +3751,19 @@
         <v>128215</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>98867</v>
+        <v>102828</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>157017</v>
+        <v>160363</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>0.09447760662819985</v>
+        <v>0.09447760662819986</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.07285136452717583</v>
+        <v>0.07577021886415025</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1157002239344423</v>
+        <v>0.1181660660032204</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>186</v>
@@ -3772,19 +3772,19 @@
         <v>136520</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>116416</v>
+        <v>117572</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>157346</v>
+        <v>159400</v>
       </c>
       <c r="N46" s="6" t="n">
-        <v>0.09462216219111727</v>
+        <v>0.09462216219111726</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.08068802844526564</v>
+        <v>0.08148923937609683</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.109056726427632</v>
+        <v>0.1104803075966566</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>279</v>
@@ -3793,19 +3793,19 @@
         <v>264735</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>229728</v>
+        <v>230673</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>298542</v>
+        <v>302529</v>
       </c>
       <c r="U46" s="6" t="n">
-        <v>0.09455209648156485</v>
+        <v>0.09455209648156487</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.08204905933877461</v>
+        <v>0.08238664030540463</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.1066265041724944</v>
+        <v>0.1080505524775268</v>
       </c>
     </row>
     <row r="47">
@@ -3822,19 +3822,19 @@
         <v>333148</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>301480</v>
+        <v>301969</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>369082</v>
+        <v>369351</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.2454856690581959</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.2221506117984195</v>
+        <v>0.2225105346844462</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.271963920274288</v>
+        <v>0.2721621366900221</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>674</v>
@@ -3843,19 +3843,19 @@
         <v>443842</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>413087</v>
+        <v>410207</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>475232</v>
+        <v>474534</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.3076276115727188</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.286311004411802</v>
+        <v>0.2843151876714421</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.3293837159809631</v>
+        <v>0.3289003596664291</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>1002</v>
@@ -3864,19 +3864,19 @@
         <v>776990</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>732399</v>
+        <v>736279</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>826302</v>
+        <v>827097</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.277507571863614</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.2615815436525645</v>
+        <v>0.262967419568767</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2951197682615799</v>
+        <v>0.2954035669450171</v>
       </c>
     </row>
     <row r="48">
@@ -3893,19 +3893,19 @@
         <v>517923</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>480299</v>
+        <v>477432</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>558895</v>
+        <v>554436</v>
       </c>
       <c r="G48" s="6" t="n">
-        <v>0.3816395871538545</v>
+        <v>0.3816395871538546</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.3539160631795744</v>
+        <v>0.3518036204984026</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.4118303226470926</v>
+        <v>0.408544939036179</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>707</v>
@@ -3914,19 +3914,19 @@
         <v>464961</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>436643</v>
+        <v>432128</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>496650</v>
+        <v>494365</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.3222649810857255</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.3026380636609912</v>
+        <v>0.2995083650054371</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.3442288986921875</v>
+        <v>0.3426449701616258</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>1233</v>
@@ -3935,19 +3935,19 @@
         <v>982883</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>929743</v>
+        <v>933460</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>1027269</v>
+        <v>1029521</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.3510436999367906</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.3320645082194433</v>
+        <v>0.3333917390557175</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.3668965584934238</v>
+        <v>0.3677008390387229</v>
       </c>
     </row>
     <row r="49">
@@ -3964,19 +3964,19 @@
         <v>203344</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>174372</v>
+        <v>176567</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>231209</v>
+        <v>233893</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.1498374495422164</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1284888362876428</v>
+        <v>0.1301058599102834</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.17036998033085</v>
+        <v>0.1723474462041725</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>263</v>
@@ -3985,19 +3985,19 @@
         <v>191067</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>169114</v>
+        <v>171090</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>214519</v>
+        <v>218673</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.132428866028688</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.1172131500697053</v>
+        <v>0.1185828645997329</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.1486834240237433</v>
+        <v>0.1515626517309073</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>464</v>
@@ -4006,19 +4006,19 @@
         <v>394411</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>358780</v>
+        <v>356078</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>429573</v>
+        <v>432551</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.1408667616832083</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.1281408941786149</v>
+        <v>0.1271757037392293</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.1534251269462494</v>
+        <v>0.1544887977327504</v>
       </c>
     </row>
     <row r="50">
@@ -4035,19 +4035,19 @@
         <v>174468</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>151178</v>
+        <v>151275</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>204189</v>
+        <v>199203</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.1285596876175332</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1113980304615795</v>
+        <v>0.1114695642314339</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1504599463857089</v>
+        <v>0.1467859002611431</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>299</v>
@@ -4056,19 +4056,19 @@
         <v>206400</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>185702</v>
+        <v>181574</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>231216</v>
+        <v>230423</v>
       </c>
       <c r="N50" s="6" t="n">
-        <v>0.1430563791217505</v>
+        <v>0.1430563791217504</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.1287103592515719</v>
+        <v>0.1258492315218938</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.1602559240711634</v>
+        <v>0.1597066275317468</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>487</v>
@@ -4077,19 +4077,19 @@
         <v>380868</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>348404</v>
+        <v>349767</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>413474</v>
+        <v>419465</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.1360298700348222</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.1244351089699723</v>
+        <v>0.124921635312282</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.1476752587644014</v>
+        <v>0.1498147783395706</v>
       </c>
     </row>
     <row r="51">
